--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2717091.600712979</v>
+        <v>2821271.23516405</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>109.687081762509</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>117.4128986855871</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>43.52329982377792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>329.5539077775921</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9666336829069</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>27.65913193862761</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>76.27638937073745</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>285.8759640818249</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.52923230912256</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>120.3538054494078</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,7 +1344,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>123.8264475984204</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>190.4156246166119</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>2.26848612580527</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>90.85912858529916</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.73433514019965</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>32.81060261323905</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>126.632153562788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>54.26758323426916</v>
+        <v>56.04917322725648</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>74.20064764874475</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.82891891787546</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -2764,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>170.70546349636</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>99.65140663107616</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>53.07327741456153</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>172.1659031415434</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0.6452826062333952</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>13.37642554686373</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>108.6115798077508</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>51.36569740310382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>30.87238256912046</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>132.4736633694653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>100.0416311957221</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>218.78723427652</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>14.19454216862647</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>185.4048731212365</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943747</v>
+        <v>985.1133520179771</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>599.3250994197329</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>188.3391946301253</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>177.3071485155259</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="3">
@@ -4404,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.3899067494191</v>
+        <v>504.1638263336251</v>
       </c>
       <c r="C4" t="n">
-        <v>479.4537238215122</v>
+        <v>335.2276434057183</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>185.1110039933825</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.67533979849</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592603</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1058.027922477676</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X4" t="n">
-        <v>830.0383715796588</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y4" t="n">
-        <v>830.0383715796588</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2304.808759915837</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C5" t="n">
-        <v>1935.846242975425</v>
+        <v>1196.47774764119</v>
       </c>
       <c r="D5" t="n">
-        <v>1577.580544368675</v>
+        <v>838.2120490344394</v>
       </c>
       <c r="E5" t="n">
-        <v>1191.792291770431</v>
+        <v>452.4237964361951</v>
       </c>
       <c r="F5" t="n">
-        <v>780.8063869808232</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4604,13 +4606,13 @@
         <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2304.808759915837</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4641,7 +4643,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>708.3064969624544</v>
+        <v>555.4774356872693</v>
       </c>
       <c r="C7" t="n">
-        <v>539.3703140345475</v>
+        <v>555.4774356872693</v>
       </c>
       <c r="D7" t="n">
-        <v>389.2536746222117</v>
+        <v>555.4774356872693</v>
       </c>
       <c r="E7" t="n">
-        <v>241.3405810398186</v>
+        <v>555.4774356872693</v>
       </c>
       <c r="F7" t="n">
-        <v>94.45063354190827</v>
+        <v>408.587488189359</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>240.8846515640779</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1446.505797040963</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>1157.088627004002</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>929.0990761059845</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.3064969624544</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1853.982617026597</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1853.982617026597</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="D8" t="n">
-        <v>1495.716918419847</v>
+        <v>1006.81911994452</v>
       </c>
       <c r="E8" t="n">
-        <v>1109.928665821602</v>
+        <v>1006.81911994452</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>595.8332151549128</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>180.7607649999092</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066531</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y8" t="n">
-        <v>2240.582457090719</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>747.4506112757448</v>
+        <v>629.570363233848</v>
       </c>
       <c r="C10" t="n">
-        <v>578.5144283478379</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D10" t="n">
-        <v>578.5144283478379</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>578.5144283478379</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>431.6244808499275</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1610.531444118935</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1321.428577244578</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1321.428577244578</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>1032.011407207618</v>
       </c>
       <c r="X10" t="n">
-        <v>929.0990761059845</v>
+        <v>1032.011407207618</v>
       </c>
       <c r="Y10" t="n">
-        <v>929.0990761059845</v>
+        <v>811.2188280640877</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
         <v>631.7012443408906</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2004.723530723313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1715.648304067511</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V13" t="n">
-        <v>1460.963815861624</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W13" t="n">
-        <v>1171.546645824663</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X13" t="n">
-        <v>1171.546645824663</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.7540666811333</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.043492616111</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836023</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556954</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5933575433596</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>267.6802639609665</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>267.6802639609665</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.294644713842</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,22 +5530,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.5467179762953</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5917,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,7 +5928,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
@@ -5935,25 +5937,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y22" t="n">
-        <v>1166.195182806535</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -5999,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2598873597751</v>
+        <v>2383.002557118214</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309957</v>
+        <v>2716.927329289435</v>
       </c>
       <c r="L24" t="n">
-        <v>943.5102657467545</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373306</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958739</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>633.992644467967</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556313</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>335.9629114732381</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>335.9629114732381</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>168.7668121881181</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>168.7668121881181</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261136</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.8178837532263</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532263</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.632784380133</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.557557724331</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.873069518444</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.455899481483</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>963.466348583466</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.466348583466</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6540,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
         <v>2129.438138565707</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3194.624135499465</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="C31" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4288.376853076439</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>4114.471900408214</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3825.054730371253</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3597.065179473235</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>3376.272600329705</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.181351786237</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.326517441141</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>4287.725052464082</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>3998.64982580828</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>3998.64982580828</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>3709.23265577132</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>3481.243104873302</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>3260.450525729772</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
@@ -6947,10 +6949,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>3195.955385889439</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>3793.333873515991</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>984.5772922261136</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>815.6411092982067</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>665.524469885871</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>517.6113763034779</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>370.7214288055675</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>203.5253295204474</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="38">
@@ -7169,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7199,22 +7201,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565524</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7354,25 +7356,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U40" t="n">
-        <v>4288.376853076439</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V40" t="n">
-        <v>4033.692364870552</v>
+        <v>4120.673162832804</v>
       </c>
       <c r="W40" t="n">
-        <v>3744.275194833592</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="X40" t="n">
-        <v>3516.285643935575</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y40" t="n">
         <v>3382.473862754297</v>
@@ -7403,52 +7405,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939068</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>923.2869892719397</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>702.4944101284095</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7722,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7837,19 +7839,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>4206.99322794639</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>3952.308739740503</v>
       </c>
       <c r="W46" t="n">
-        <v>3932.255922673039</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
   </sheetData>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>26.98982571067637</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>283.9159882634389</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>74.66500970696968</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>142.9753202488375</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>112.9792378643587</v>
+        <v>111.1976478713713</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>7.06518866982077</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>191.8807364711617</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>46.69998683092822</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>186.533067758168</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>114.1735436840663</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97174018228463</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.72996410388826</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>273.1465727897273</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>31.68313303847306</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0397529241845</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>221.2652607547075</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.11098998262949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>186.142843193522</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>271.9899322206177</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>40.30478226780068</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="F2" t="n">
-        <v>665895.9447442554</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26454,7 +26456,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850893.1811041211</v>
+        <v>-850893.1811041214</v>
       </c>
       <c r="C6" t="n">
-        <v>477851.564623471</v>
+        <v>477851.5646234711</v>
       </c>
       <c r="D6" t="n">
-        <v>477851.5646234707</v>
+        <v>477851.5646234711</v>
       </c>
       <c r="E6" t="n">
-        <v>226974.0329311741</v>
+        <v>226974.0329311746</v>
       </c>
       <c r="F6" t="n">
+        <v>552386.4947385297</v>
+      </c>
+      <c r="G6" t="n">
+        <v>552386.4947385298</v>
+      </c>
+      <c r="H6" t="n">
+        <v>552386.4947385294</v>
+      </c>
+      <c r="I6" t="n">
         <v>552386.4947385301</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>334855.2923412522</v>
+      </c>
+      <c r="K6" t="n">
         <v>552386.4947385299</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>552386.4947385298</v>
+      </c>
+      <c r="M6" t="n">
+        <v>467331.4668030181</v>
+      </c>
+      <c r="N6" t="n">
+        <v>552386.4947385298</v>
+      </c>
+      <c r="O6" t="n">
         <v>552386.4947385301</v>
       </c>
-      <c r="I6" t="n">
-        <v>552386.4947385299</v>
-      </c>
-      <c r="J6" t="n">
-        <v>334855.2923412521</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>552386.4947385298</v>
-      </c>
-      <c r="L6" t="n">
-        <v>552386.49473853</v>
-      </c>
-      <c r="M6" t="n">
-        <v>467331.4668030177</v>
-      </c>
-      <c r="N6" t="n">
-        <v>552386.4947385299</v>
-      </c>
-      <c r="O6" t="n">
-        <v>552386.4947385299</v>
-      </c>
-      <c r="P6" t="n">
-        <v>552386.49473853</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>184.9206826248115</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.02106396098208</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>242.9996985128131</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>77.32213796411929</v>
       </c>
       <c r="G5" t="n">
-        <v>39.9550919705465</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138.3666763204006</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>68.47862554358333</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>121.0000816598865</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>223.0785320781979</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>45.67200280962042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>95.72250167774878</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>253.6713445157994</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>522.1224556861831</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018702</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32554,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>501.1621040024318</v>
+        <v>567.4250434254218</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32725,7 +32727,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
@@ -32783,22 +32785,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>147.4873481937407</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760382</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>461.1007071927452</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33497,28 +33499,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>269.1634560719501</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,34 +33733,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182637</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33968,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L39" t="n">
-        <v>347.4623967873085</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>220.7280629601519</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>246.2467565146293</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34463,7 +34465,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>122.3296324324661</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>379.5262112417387</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>369.8203919190985</v>
+        <v>436.0833313420885</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36364,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36373,7 +36375,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>20.64972152707399</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396164</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>318.5044627483008</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>127.0294221499318</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383895</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L39" t="n">
-        <v>208.9080170074343</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88662398579289</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38113,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2821271.23516405</v>
+        <v>2817258.625150057</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>30.77469809480439</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>109.687081762509</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>139.6845615289839</v>
       </c>
       <c r="E4" t="n">
-        <v>117.4128986855871</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>329.5539077775921</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>152.5938874041478</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>76.27638937073745</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039699</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>234.5565449461013</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>71.52923230912256</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>123.8264475984204</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>74.56049207329603</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26848612580527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.73433514019965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.81060261323905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>56.04917322725648</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.82891891787546</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>99.65140663107616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>53.07327741456153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6452826062333952</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>192.5720565938775</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>108.6115798077508</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>30.87238256912046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>218.78723427652</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946216</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>14.19454216862647</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1712.341567565139</v>
+        <v>1238.038871968311</v>
       </c>
       <c r="C2" t="n">
-        <v>1343.379050624728</v>
+        <v>1238.038871968311</v>
       </c>
       <c r="D2" t="n">
-        <v>985.1133520179771</v>
+        <v>1238.038871968311</v>
       </c>
       <c r="E2" t="n">
-        <v>599.3250994197329</v>
+        <v>852.2506193700665</v>
       </c>
       <c r="F2" t="n">
-        <v>188.3391946301253</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>177.3071485155259</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136267</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866153</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605073</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.941407629261</v>
+        <v>1624.638712032433</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.1638263336251</v>
+        <v>985.2668805437605</v>
       </c>
       <c r="C4" t="n">
-        <v>335.2276434057183</v>
+        <v>816.3306976158536</v>
       </c>
       <c r="D4" t="n">
-        <v>185.1110039933825</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205412</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="X4" t="n">
-        <v>906.604870307395</v>
+        <v>1387.70792451753</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.8122911638649</v>
+        <v>1166.915345374</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1565.440264581601</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1196.47774764119</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>838.2120490344394</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>452.4237964361951</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3061.179913334097</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645723</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4643,31 +4643,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.4774356872693</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>555.4774356872693</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>555.4774356872693</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>555.4774356872693</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>408.587488189359</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>240.8846515640779</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307995</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.4774356872693</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491682</v>
+        <v>1381.278680221569</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.084818551271</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.81911994452</v>
+        <v>654.0504646744068</v>
       </c>
       <c r="E8" t="n">
-        <v>1006.81911994452</v>
+        <v>654.0504646744068</v>
       </c>
       <c r="F8" t="n">
-        <v>595.8332151549128</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>180.7607649999092</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555804</v>
+        <v>1767.878520285691</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.570363233848</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>629.570363233848</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1610.531444118935</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1321.428577244578</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1321.428577244578</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1032.011407207618</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1032.011407207618</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>811.2188280640877</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5132,16 +5132,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2304.603751475798</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.169680383432</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.485192177545</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140585</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>3658.217393399322</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913855</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417938</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446605</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179095</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289435</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2817.800993781637</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>2817.800993781637</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3445.398957336244</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6226,22 +6226,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3403484614391</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,10 +6791,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.181351786237</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.326517441141</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4287.725052464082</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3998.64982580828</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3998.64982580828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3709.23265577132</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3481.243104873302</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3260.450525729772</v>
+        <v>721.7774158311365</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,19 +6934,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3195.955385889439</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3793.333873515991</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4420.931837070598</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.5772922261136</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>815.6411092982067</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>665.524469885871</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>517.6113763034779</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>370.7214288055675</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>203.5253295204474</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,22 +7201,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>4120.673162832804</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3831.255992795844</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3603.266441897827</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3382.473862754297</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>923.2869892719397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>702.4944101284095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729772</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801865</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.39770338953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>4206.99322794639</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>3952.308739740503</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>3662.891569703542</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>3662.891569703542</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>3442.098990560012</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>283.9159882634389</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>111.1976478713713</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>191.8807364711617</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>186.533067758168</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>114.1735436840663</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.72996410388826</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>26.01259675821728</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>31.68313303847306</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>221.2652607547075</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>6.922421112517128</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316928</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316932</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850893.1811041214</v>
+        <v>-850893.1811041222</v>
       </c>
       <c r="C6" t="n">
-        <v>477851.5646234711</v>
+        <v>477851.5646234709</v>
       </c>
       <c r="D6" t="n">
-        <v>477851.5646234711</v>
+        <v>477851.5646234713</v>
       </c>
       <c r="E6" t="n">
-        <v>226974.0329311746</v>
+        <v>226626.6536768178</v>
       </c>
       <c r="F6" t="n">
-        <v>552386.4947385297</v>
+        <v>552039.1154841728</v>
       </c>
       <c r="G6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841726</v>
       </c>
       <c r="H6" t="n">
-        <v>552386.4947385294</v>
+        <v>552039.1154841728</v>
       </c>
       <c r="I6" t="n">
-        <v>552386.4947385301</v>
+        <v>552039.1154841727</v>
       </c>
       <c r="J6" t="n">
-        <v>334855.2923412522</v>
+        <v>334507.9130868951</v>
       </c>
       <c r="K6" t="n">
-        <v>552386.4947385299</v>
+        <v>552039.1154841726</v>
       </c>
       <c r="L6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841727</v>
       </c>
       <c r="M6" t="n">
-        <v>467331.4668030181</v>
+        <v>466984.0875486609</v>
       </c>
       <c r="N6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841727</v>
       </c>
       <c r="O6" t="n">
-        <v>552386.4947385301</v>
+        <v>552039.1154841727</v>
       </c>
       <c r="P6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841726</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022932</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.401455402293</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>376.1013476469071</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>184.9206826248115</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8.930911489228407</v>
       </c>
       <c r="E4" t="n">
-        <v>29.02106396098208</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>77.32213796411929</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>51.32408273547233</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>68.47862554358333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.110451203431</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>172.3195007956101</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>223.0785320781979</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>95.72250167774878</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861831</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>567.4250434254218</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760382</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>622.4211036182637</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>303.4024373464759</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>246.2467565146293</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417387</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>436.0833313420885</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>483.8667238383895</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>165.560998372117</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>108.4053175402703</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2817258.625150057</v>
+        <v>2819019.155452842</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>30.77469809480439</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>185.4504116994416</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247925</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>349.9077264684842</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292587</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>152.5938874041478</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991775</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039699</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>234.5565449461013</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>180.1454415463381</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>22.65115569188777</v>
       </c>
       <c r="S13" t="n">
-        <v>74.56049207329603</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592114</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.404873121236</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>12.7400764119402</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.5720565938775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>53.08838020946216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968311</v>
+        <v>1384.829779622647</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.038871968311</v>
+        <v>1015.867262682235</v>
       </c>
       <c r="D2" t="n">
-        <v>1238.038871968311</v>
+        <v>657.6015640754847</v>
       </c>
       <c r="E2" t="n">
-        <v>852.2506193700665</v>
+        <v>271.8133114772405</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>264.867810728037</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>253.8357646134376</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
         <v>255.391247391209</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609173</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883009</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539438</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269324</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008244</v>
+        <v>2161.56895166258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032433</v>
+        <v>1771.429619686769</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686093</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064768</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158138</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4482,19 +4482,19 @@
         <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
         <v>976.3387758760409</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477181</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.391247391209</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3061.179913334097</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>2807.649436607934</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V5" t="n">
-        <v>2807.649436607934</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="W5" t="n">
-        <v>2807.649436607934</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>2698.609586621929</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2698.609586621929</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228009</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>752.7622949738586</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>583.8261120459517</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>433.709472633616</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>285.7963790512229</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>138.9064315533125</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791191</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>934.4107598040983</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221569</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281157</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744068</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>654.0504646744068</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792697</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522582</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285691</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2424.083128335929</v>
       </c>
       <c r="S13" t="n">
-        <v>2304.603751475798</v>
+        <v>2241.228293990834</v>
       </c>
       <c r="T13" t="n">
-        <v>2085.00228649874</v>
+        <v>2021.626829013775</v>
       </c>
       <c r="U13" t="n">
-        <v>1795.927059842937</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V13" t="n">
-        <v>1541.24257163705</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.82540160009</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>106.6854271004367</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6600,25 +6600,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,7 +6645,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2254.869721166297</v>
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>721.7774158311365</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -7077,16 +7077,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.865174681370263e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>43.72409101823393</v>
       </c>
       <c r="S13" t="n">
-        <v>106.4657939283486</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>139.4693302300328</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.30478226780113</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442547</v>
@@ -26349,10 +26349,10 @@
         <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442547</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>91573.95495316928</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316932</v>
+        <v>91573.9549531693</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850893.1811041222</v>
+        <v>-850893.181104122</v>
       </c>
       <c r="C6" t="n">
-        <v>477851.5646234709</v>
+        <v>477851.5646234713</v>
       </c>
       <c r="D6" t="n">
-        <v>477851.5646234713</v>
+        <v>477851.564623471</v>
       </c>
       <c r="E6" t="n">
-        <v>226626.6536768178</v>
+        <v>226939.2950057392</v>
       </c>
       <c r="F6" t="n">
-        <v>552039.1154841728</v>
+        <v>552351.7568130937</v>
       </c>
       <c r="G6" t="n">
-        <v>552039.1154841726</v>
+        <v>552351.7568130939</v>
       </c>
       <c r="H6" t="n">
-        <v>552039.1154841728</v>
+        <v>552351.7568130943</v>
       </c>
       <c r="I6" t="n">
-        <v>552039.1154841727</v>
+        <v>552351.7568130941</v>
       </c>
       <c r="J6" t="n">
-        <v>334507.9130868951</v>
+        <v>334820.5544158165</v>
       </c>
       <c r="K6" t="n">
-        <v>552039.1154841726</v>
+        <v>552351.7568130939</v>
       </c>
       <c r="L6" t="n">
-        <v>552039.1154841727</v>
+        <v>552351.756813094</v>
       </c>
       <c r="M6" t="n">
-        <v>466984.0875486609</v>
+        <v>467296.7288775821</v>
       </c>
       <c r="N6" t="n">
-        <v>552039.1154841727</v>
+        <v>552351.7568130939</v>
       </c>
       <c r="O6" t="n">
-        <v>552039.1154841727</v>
+        <v>552351.7568130939</v>
       </c>
       <c r="P6" t="n">
-        <v>552039.1154841726</v>
+        <v>552351.7568130939</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>376.1013476469071</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>109.1573526878789</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>32.82611519499642</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>51.32408273547233</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911047</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983806</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.110451203431</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>172.3195007956101</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>189.5856591321309</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>17.26178070013006</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
